--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\weighbridge-v1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBA900E-4380-45B9-95CC-66A82CFD94C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38603033-C2D6-41E9-9D06-9B1D0D1A39B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="732" windowWidth="30720" windowHeight="16548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weighing - Full Report" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Sl.No</t>
   </si>
@@ -77,6 +77,18 @@
   </si>
   <si>
     <t>Remarks</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>Phone No</t>
+  </si>
+  <si>
+    <t>Round off</t>
+  </si>
+  <si>
+    <t>Credit</t>
   </si>
 </sst>
 </file>
@@ -84,9 +96,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="dd\-mm\-yyyy"/>
-    <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm\ AM/PM"/>
-    <numFmt numFmtId="169" formatCode="dd\-mm\-yyyy\ hh:mm\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy\ hh:mm\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="dd\-mm\-yyyy\ hh:mm\ AM/PM"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -122,9 +134,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,36 +451,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.9296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.9296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.53125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.59765625" customWidth="1"/>
-    <col min="14" max="14" width="14.06640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.53125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,46 +504,58 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -535,26 +563,11 @@
       <c r="C2" s="2">
         <v>44275</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
         <v>44274.527083333334</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4">
-        <v>44274.027083333334</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -562,14 +575,14 @@
       <c r="P2" s="4">
         <v>44274.027083333334</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4">
+        <v>44274.027083333334</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>-2</v>
       </c>
@@ -577,26 +590,11 @@
       <c r="C3" s="2">
         <v>44275</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
         <v>44274.527083333334</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
-        <v>44274.027083333334</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -604,14 +602,14 @@
       <c r="P3" s="4">
         <v>44274.027083333334</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4">
+        <v>44274.027083333334</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>-3</v>
       </c>
@@ -619,26 +617,11 @@
       <c r="C4" s="2">
         <v>44275</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
         <v>44274.527083333334</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>44274.027083333334</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -646,11 +629,11 @@
       <c r="P4" s="4">
         <v>44274.027083333334</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
+        <v>44274.027083333334</v>
       </c>
     </row>
   </sheetData>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\weighbridge-v1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBA900E-4380-45B9-95CC-66A82CFD94C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18ED08AD-4BA7-474B-A648-0493F470C1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="732" windowWidth="30720" windowHeight="16548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weighing - Full Report" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Sl.No</t>
   </si>
@@ -77,6 +77,15 @@
   </si>
   <si>
     <t>Remarks</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>Phone No</t>
+  </si>
+  <si>
+    <t>Round off</t>
   </si>
 </sst>
 </file>
@@ -84,9 +93,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="dd\-mm\-yyyy"/>
-    <numFmt numFmtId="168" formatCode="dd/mm/yyyy\ hh:mm\ AM/PM"/>
-    <numFmt numFmtId="169" formatCode="dd\-mm\-yyyy\ hh:mm\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy\ hh:mm\ AM/PM"/>
+    <numFmt numFmtId="166" formatCode="dd\-mm\-yyyy\ hh:mm\ AM/PM"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -122,9 +131,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,36 +448,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="A5" sqref="A5:XFD17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.9296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.9296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.53125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.59765625" customWidth="1"/>
-    <col min="14" max="14" width="14.06640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.53125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,46 +500,55 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -535,41 +556,26 @@
       <c r="C2" s="2">
         <v>44275</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
         <v>44274.527083333334</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
         <v>44274.027083333334</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="4">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4">
         <v>44274.027083333334</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>-2</v>
       </c>
@@ -577,41 +583,26 @@
       <c r="C3" s="2">
         <v>44275</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
         <v>44274.527083333334</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
         <v>44274.027083333334</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="4">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4">
         <v>44274.027083333334</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>-3</v>
       </c>
@@ -619,38 +610,23 @@
       <c r="C4" s="2">
         <v>44275</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
         <v>44274.527083333334</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
         <v>44274.027083333334</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" s="4">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4">
         <v>44274.027083333334</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\weighbridge-v1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38603033-C2D6-41E9-9D06-9B1D0D1A39B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94C7848-0589-461A-A252-E181ADD2B8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="732" windowWidth="30720" windowHeight="16548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weighing - Full Report" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Sl.No</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>Credit</t>
+  </si>
+  <si>
+    <t>Vehicle Type</t>
+  </si>
+  <si>
+    <t>Operator</t>
   </si>
 </sst>
 </file>
@@ -451,40 +457,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,58 +512,64 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -563,26 +577,26 @@
       <c r="C2" s="2">
         <v>44275</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="3">
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3">
         <v>44274.527083333334</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="4">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
         <v>44274.027083333334</v>
       </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2" s="4">
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="4">
         <v>44274.027083333334</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>-2</v>
       </c>
@@ -590,26 +604,26 @@
       <c r="C3" s="2">
         <v>44275</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3">
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
         <v>44274.527083333334</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="4">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
         <v>44274.027083333334</v>
       </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3" s="4">
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3" s="4">
         <v>44274.027083333334</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>-3</v>
       </c>
@@ -617,22 +631,22 @@
       <c r="C4" s="2">
         <v>44275</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
         <v>44274.527083333334</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" s="4">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
         <v>44274.027083333334</v>
       </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4" s="4">
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4">
         <v>44274.027083333334</v>
       </c>
     </row>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\IdeaProjects\weighbridge-v1.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moleesh\IdeaProjects\weighbridge-v1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94C7848-0589-461A-A252-E181ADD2B8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD9189F-14C7-4949-B4F5-BA501220461B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Sl.No</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Material</t>
   </si>
   <si>
-    <t>No Of Bags</t>
-  </si>
-  <si>
     <t>Charges</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
     <t>Tare Date &amp; Time</t>
   </si>
   <si>
-    <t>Bag Deduction</t>
-  </si>
-  <si>
     <t>Nett Wt</t>
   </si>
   <si>
@@ -85,9 +79,6 @@
     <t>Phone No</t>
   </si>
   <si>
-    <t>Round off</t>
-  </si>
-  <si>
     <t>Credit</t>
   </si>
   <si>
@@ -95,6 +86,18 @@
   </si>
   <si>
     <t>Operator</t>
+  </si>
+  <si>
+    <t>CUSTOM_1</t>
+  </si>
+  <si>
+    <t>CUSTOM_2</t>
+  </si>
+  <si>
+    <t>CUSTOM_3</t>
+  </si>
+  <si>
+    <t>CUSTOM_4</t>
   </si>
 </sst>
 </file>
@@ -161,9 +164,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -201,7 +204,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -307,7 +310,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -449,7 +452,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -457,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -473,26 +476,24 @@
     <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,16 +513,16 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>6</v>
@@ -530,10 +531,10 @@
         <v>7</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>9</v>
@@ -545,31 +546,34 @@
         <v>11</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -577,26 +581,28 @@
       <c r="C2" s="2">
         <v>44275</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
         <v>44274.527083333334</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="4">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
         <v>44274.027083333334</v>
       </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2" s="4">
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="4">
         <v>44274.027083333334</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>-2</v>
       </c>
@@ -604,26 +610,28 @@
       <c r="C3" s="2">
         <v>44275</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
         <v>44274.527083333334</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3" s="4">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4">
         <v>44274.027083333334</v>
       </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3" s="4">
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3" s="4">
         <v>44274.027083333334</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>-3</v>
       </c>
@@ -631,22 +639,24 @@
       <c r="C4" s="2">
         <v>44275</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
         <v>44274.527083333334</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4" s="4">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
         <v>44274.027083333334</v>
       </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4" s="4">
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4" s="4">
         <v>44274.027083333334</v>
       </c>
     </row>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moleesh\IdeaProjects\weighbridge-v1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD9189F-14C7-4949-B4F5-BA501220461B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BB93AC-C7D2-4429-BEC4-90940B701FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Sl.No</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Vehicle Type</t>
   </si>
   <si>
-    <t>Operator</t>
-  </si>
-  <si>
     <t>CUSTOM_1</t>
   </si>
   <si>
@@ -98,6 +95,12 @@
   </si>
   <si>
     <t>CUSTOM_4</t>
+  </si>
+  <si>
+    <t>Operator Tare</t>
+  </si>
+  <si>
+    <t>Operator Gross</t>
   </si>
 </sst>
 </file>
@@ -460,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -475,25 +478,26 @@
     <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,64 +520,67 @@
         <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -581,28 +588,37 @@
       <c r="C2" s="2">
         <v>44275</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3">
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3">
         <v>44274.527083333334</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="4">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="4">
         <v>44274.027083333334</v>
       </c>
-      <c r="R2" s="4"/>
       <c r="S2" s="4"/>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2" s="4">
+      <c r="T2" s="4"/>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
         <v>44274.027083333334</v>
       </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>-2</v>
       </c>
@@ -610,28 +626,37 @@
       <c r="C3" s="2">
         <v>44275</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
         <v>44274.527083333334</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="4">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
         <v>44274.027083333334</v>
       </c>
-      <c r="R3" s="4"/>
       <c r="S3" s="4"/>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3" s="4">
+      <c r="T3" s="4"/>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3" s="4">
         <v>44274.027083333334</v>
       </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>-3</v>
       </c>
@@ -639,25 +664,34 @@
       <c r="C4" s="2">
         <v>44275</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
         <v>44274.527083333334</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="4">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
         <v>44274.027083333334</v>
       </c>
-      <c r="R4" s="4"/>
       <c r="S4" s="4"/>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4" s="4">
+      <c r="T4" s="4"/>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4" s="4">
         <v>44274.027083333334</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
